--- a/biology/Zoologie/Aurore_des_Balkans/Aurore_des_Balkans.xlsx
+++ b/biology/Zoologie/Aurore_des_Balkans/Aurore_des_Balkans.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anthocharis gruneri
 L’Aurore des Balkans ou Aurore de Grèce (Anthocharis   gruneri)  est un insecte lépidoptère  de la famille des Pieridae, de la sous-famille des Pierinae et du genre Anthocharis.
@@ -512,85 +524,90 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Anthocharis   gruneri (Herrich-Schäffer, 1851)
-Noms vernaculaires
-L'Aurore des Balkans se nomme Grüner's Orange Tip en anglais.
-Sous-espèces
-Anthocharis gruneri gruneri
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anthocharis   gruneri (Herrich-Schäffer, 1851)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Aurore_des_Balkans</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aurore_des_Balkans</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Aurore des Balkans se nomme Grüner's Orange Tip en anglais.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Aurore_des_Balkans</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aurore_des_Balkans</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Anthocharis gruneri gruneri
 Anthocharis gruneri armeniaca Christoph, 1893.
 Anthocharis gruneri macedonica (Buresch, 1921) en Macédoine
 Anthocharis gruneri parnassi (Bernardi, 1970)
-Anthocharis gruneri fereiduni (Carbonell et Back, 2009) dans le sud-ouest de l'Iran[1]
-Anthocharis gruneri eros (Röber, 1907) en Syrie[2]</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Aurore_des_Balkans</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Aurore_des_Balkans</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'Aurore des Balkans  présente le même dimorphisme sexuel que les autres Aurore: l'apex des ailes antérieures du mâle est orange bordé d'une petite bande noire alors que la femelle est blanche avec cette même bande à l'apex. Les ailes postérieures sont marbrées de vert et ces marques sont intenses sur le revers.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Aurore_des_Balkans</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Aurore_des_Balkans</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les œufs donnent des chenilles puis des chrysalides vertes.
-Période de vol et hivernation
-Les adultes volent de mars à juin, en une seule génération annuelle.
-Elle hiverne dans sa chrysalide, au stade nymphal.
-Plantes hôtes
-La plante-hôte de la chenille est Aethionema saxatilis.
-</t>
+Anthocharis gruneri fereiduni (Carbonell et Back, 2009) dans le sud-ouest de l'Iran
+Anthocharis gruneri eros (Röber, 1907) en Syrie</t>
         </is>
       </c>
     </row>
@@ -615,16 +632,14 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Écologie et distribution</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'Aurore des Balkans  est présente en Grèce, Turquie, Syrie, Irak, Iran et Kurdistan.
-Biotope
-Elle est inféodée aux escarpements rocheux où pousse sa plante hôte.
-Protection
-Pas de statut de protection particulier
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Aurore des Balkans  présente le même dimorphisme sexuel que les autres Aurore: l'apex des ailes antérieures du mâle est orange bordé d'une petite bande noire alors que la femelle est blanche avec cette même bande à l'apex. Les ailes postérieures sont marbrées de vert et ces marques sont intenses sur le revers.
 </t>
         </is>
       </c>
@@ -650,10 +665,227 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les œufs donnent des chenilles puis des chrysalides vertes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Aurore_des_Balkans</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aurore_des_Balkans</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Période de vol et hivernation</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les adultes volent de mars à juin, en une seule génération annuelle.
+Elle hiverne dans sa chrysalide, au stade nymphal.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Aurore_des_Balkans</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aurore_des_Balkans</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plante-hôte de la chenille est Aethionema saxatilis.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Aurore_des_Balkans</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aurore_des_Balkans</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Aurore des Balkans  est présente en Grèce, Turquie, Syrie, Irak, Iran et Kurdistan.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Aurore_des_Balkans</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aurore_des_Balkans</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est inféodée aux escarpements rocheux où pousse sa plante hôte.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Aurore_des_Balkans</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aurore_des_Balkans</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Aurore_des_Balkans</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aurore_des_Balkans</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>Philatélie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
